--- a/data/trans_dic/P38B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P38B-Edad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.645689874044874</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.5854747244196901</v>
+        <v>0.58547472441969</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5444485626994177</v>
@@ -664,7 +664,7 @@
         <v>0.6007704928087416</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.5143838294822786</v>
+        <v>0.5143838294822785</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.440231180912489</v>
+        <v>0.4374989886449897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5035582338278249</v>
+        <v>0.5065419148245665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.368775993664664</v>
+        <v>0.3731626036872878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5655928964833161</v>
+        <v>0.562482272487382</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6015423114045207</v>
+        <v>0.6006886553912366</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5085935328241126</v>
+        <v>0.5115515713892145</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.512172653443197</v>
+        <v>0.510331047189634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5698537675885785</v>
+        <v>0.5673200441656124</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4599946693650407</v>
+        <v>0.4589086158703192</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5348849241624316</v>
+        <v>0.5306299424906241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6026018516962823</v>
+        <v>0.6059143376774985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5315214561680389</v>
+        <v>0.5291396438764682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6510897570436862</v>
+        <v>0.6588255116602704</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6949887038669824</v>
+        <v>0.6910485244249313</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6527146120291116</v>
+        <v>0.6595637130339503</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5767870101813481</v>
+        <v>0.577745683738192</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6341033217053837</v>
+        <v>0.6369413200748095</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5660384307690788</v>
+        <v>0.568396058566683</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7297137529847391</v>
+        <v>0.7277422872249836</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6552253840195297</v>
+        <v>0.6527545819430252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5855815896781189</v>
+        <v>0.5857496140953539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8196045227822729</v>
+        <v>0.8177492008607508</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7817480271905977</v>
+        <v>0.7802125730606967</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7130234586177933</v>
+        <v>0.7106770120353381</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7836899411124919</v>
+        <v>0.784661586684161</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7244584378763043</v>
+        <v>0.7266721473310599</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6663520215073463</v>
+        <v>0.6666271215150289</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7936753479880839</v>
+        <v>0.793621654726924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7306546140521517</v>
+        <v>0.7308212494506643</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6997084423754821</v>
+        <v>0.7006294455081485</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8797532479158737</v>
+        <v>0.8792297750227482</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8475441207534734</v>
+        <v>0.8448531407759612</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7914489227199256</v>
+        <v>0.7928412143635465</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8275493831354847</v>
+        <v>0.8289199499368254</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7777252510103883</v>
+        <v>0.7784866264295615</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.739247380306734</v>
+        <v>0.736228089596289</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8250907842806411</v>
+        <v>0.8238928409032464</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7850376307886155</v>
+        <v>0.786335366993331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7128455989665712</v>
+        <v>0.7063215334200146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8740773244227681</v>
+        <v>0.876219653367635</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8253021223516172</v>
+        <v>0.827173976348399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.813433592749929</v>
+        <v>0.8120270565792562</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8591154274128916</v>
+        <v>0.8598567705290905</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8141146316705166</v>
+        <v>0.8128855385831865</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7708176721730619</v>
+        <v>0.7688247783374621</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.88081294974853</v>
+        <v>0.8797297720365302</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8437454859502634</v>
+        <v>0.848539399161231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7845795820065433</v>
+        <v>0.7874360390872278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9234386030262095</v>
+        <v>0.9236635758553209</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8788189992678179</v>
+        <v>0.8810359515205701</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8666566658667687</v>
+        <v>0.8632836897036147</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8941677912948538</v>
+        <v>0.894853149450392</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8543327879872865</v>
+        <v>0.8549238150839445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8161510191955459</v>
+        <v>0.8155714491276402</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.8791881028639765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8772017898078095</v>
+        <v>0.8772017898078094</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.9067953525650948</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.878177130720784</v>
+        <v>0.8778865322315488</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8511633707524906</v>
+        <v>0.8516738071005734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.846607550374996</v>
+        <v>0.8479864038080506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8774366104094804</v>
+        <v>0.8808068939740059</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8844559884067651</v>
+        <v>0.8840760711131209</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.892348697790278</v>
+        <v>0.8933111909963957</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8874988642737756</v>
+        <v>0.8861458050622057</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8755860850558548</v>
+        <v>0.8751497524545826</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8773788477021657</v>
+        <v>0.8769689318028373</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9269811621100928</v>
+        <v>0.9296066899360578</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9053546480874375</v>
+        <v>0.907034719653134</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9007755961207773</v>
+        <v>0.9026846968866781</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9290825337410903</v>
+        <v>0.9311446563844348</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9292664137331131</v>
+        <v>0.9293864325796684</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.927390529983791</v>
+        <v>0.9270481203831787</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9227711419271579</v>
+        <v>0.9218402245479282</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9103690960089713</v>
+        <v>0.9096654785750017</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9084646093902352</v>
+        <v>0.908176832268937</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.9223035703910215</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9179235359597154</v>
+        <v>0.9179235359597152</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.9526484865747024</v>
@@ -1091,7 +1091,7 @@
         <v>0.93725828834335</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.9520201250745829</v>
+        <v>0.952020125074583</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.9422554355765131</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9035653406945013</v>
+        <v>0.9037072486276778</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8911980857054497</v>
+        <v>0.8952037768176669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.893431696282928</v>
+        <v>0.8953381727847921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9275044267844932</v>
+        <v>0.9277409208838926</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.909494084544587</v>
+        <v>0.9100749248263232</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.937368473149111</v>
+        <v>0.9385033546976098</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9244579506940307</v>
+        <v>0.9232313215598283</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9099409972316529</v>
+        <v>0.9085223623122277</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9201713715947893</v>
+        <v>0.9216463736956594</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9542460331356971</v>
+        <v>0.9534969782019672</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9434746973952642</v>
+        <v>0.9467366624854576</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9379814169282467</v>
+        <v>0.9392352364141876</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9714716726544224</v>
+        <v>0.9698647863937658</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.956926081313919</v>
+        <v>0.9572349371093883</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9661133549698251</v>
+        <v>0.9648778306718329</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9564779541536862</v>
+        <v>0.9569961255416878</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9454759216331632</v>
+        <v>0.9447201912452966</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9471881598862374</v>
+        <v>0.9474808951500873</v>
       </c>
     </row>
     <row r="19">
@@ -1200,7 +1200,7 @@
         <v>0.9784174041030751</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.973692282447132</v>
+        <v>0.9736922824471319</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.958769876479265</v>
@@ -1209,7 +1209,7 @@
         <v>0.9772291277820152</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.9642024837105175</v>
+        <v>0.9642024837105176</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9311689270153902</v>
+        <v>0.9286620505704016</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9513322831698131</v>
+        <v>0.9552371697230843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9326468011407798</v>
+        <v>0.9316377370999481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9261315423705831</v>
+        <v>0.9250716958536931</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9566959623803932</v>
+        <v>0.9596957829503477</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9624235077030455</v>
+        <v>0.9603203192731019</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9386143729246134</v>
+        <v>0.9389340175500217</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9628501544835647</v>
+        <v>0.965462323068195</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9524305396081499</v>
+        <v>0.9519316995451791</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9823882589647002</v>
+        <v>0.9831856617271993</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9879739688665548</v>
+        <v>0.989962864830799</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9712288183450452</v>
+        <v>0.9691311378532349</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9721978351850837</v>
+        <v>0.9717997633035129</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9892557656501521</v>
+        <v>0.9897554722013739</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9836520590091751</v>
+        <v>0.9831710888310218</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9723619207389816</v>
+        <v>0.9728964139350261</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9859135138544389</v>
+        <v>0.9868115329988723</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9739869241367689</v>
+        <v>0.9736050474915909</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.9806238552252458</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9872651753592921</v>
+        <v>0.9872651753592924</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.9715515995046636</v>
@@ -1318,7 +1318,7 @@
         <v>0.9811890791397994</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.9725363681631246</v>
+        <v>0.9725363681631248</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.893299135708858</v>
+        <v>0.8869128048610643</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9617527062052033</v>
+        <v>0.9600833455107013</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.973087732381184</v>
+        <v>0.9699248562399796</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9465039223457344</v>
+        <v>0.9487065282163386</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9529858970611319</v>
+        <v>0.9561043184164441</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9445241255479403</v>
+        <v>0.9457795660925712</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9355687572260025</v>
+        <v>0.9379362208516869</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9661612504437557</v>
+        <v>0.9659530366027396</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9613039690439631</v>
+        <v>0.9601018047893664</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9617751245775875</v>
+        <v>0.9629310190844407</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9930091427214037</v>
+        <v>0.9931270031033382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9954459121981087</v>
+        <v>0.995233319216167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9857862869723742</v>
+        <v>0.9856133924401984</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.99352380604429</v>
+        <v>0.9936131819144315</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9746591948757726</v>
+        <v>0.9758136211124208</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9708200350599829</v>
+        <v>0.9715807808515452</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9899026168055988</v>
+        <v>0.9907390511015275</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9810746899023284</v>
+        <v>0.9810915618319772</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.8740722453243587</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.8669795389390964</v>
+        <v>0.8669795389390962</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.8501564571320428</v>
@@ -1427,7 +1427,7 @@
         <v>0.8471071612511355</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.8341567502621414</v>
+        <v>0.8341567502621415</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8075067743341079</v>
+        <v>0.807702800485779</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8055806922327826</v>
+        <v>0.8058150668163038</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7821979010552818</v>
+        <v>0.7820889917171772</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8666789605291093</v>
+        <v>0.8659651706006887</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8628801446396743</v>
+        <v>0.8636988570506248</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.8542067625481629</v>
+        <v>0.8556725262695388</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8411790279224783</v>
+        <v>0.8422142420477627</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8389437205996593</v>
+        <v>0.8376002457665672</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8229666223866872</v>
+        <v>0.8242717290345771</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8349773044667589</v>
+        <v>0.8339655902074863</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8320346536357961</v>
+        <v>0.8330872340829878</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.816301833541657</v>
+        <v>0.8167165110199087</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8887581153772283</v>
+        <v>0.8878937164024245</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8846268927390782</v>
+        <v>0.8844429438728175</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8792815530108368</v>
+        <v>0.8788568320472572</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8586915232091314</v>
+        <v>0.8593632250163696</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8552141896373001</v>
+        <v>0.8556914239756814</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8436003780552088</v>
+        <v>0.8445457446705201</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>198279</v>
+        <v>197048</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>204436</v>
+        <v>205647</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>150384</v>
+        <v>152173</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>240570</v>
+        <v>239247</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>236893</v>
+        <v>236557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>183775</v>
+        <v>184844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>448530</v>
+        <v>446917</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>455764</v>
+        <v>453738</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>353797</v>
+        <v>352961</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>240911</v>
+        <v>238994</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>244646</v>
+        <v>245990</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>216751</v>
+        <v>215779</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>276936</v>
+        <v>280226</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>273694</v>
+        <v>272142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>235851</v>
+        <v>238326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>505115</v>
+        <v>505954</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>507151</v>
+        <v>509421</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>435358</v>
+        <v>437172</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>497266</v>
+        <v>495922</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>386241</v>
+        <v>384784</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>279258</v>
+        <v>279338</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>497562</v>
+        <v>496436</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>440549</v>
+        <v>439684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>357284</v>
+        <v>356108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1009807</v>
+        <v>1011059</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>835316</v>
+        <v>837868</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>651674</v>
+        <v>651943</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>540852</v>
+        <v>540816</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>430705</v>
+        <v>430803</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>333684</v>
+        <v>334123</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>534077</v>
+        <v>533759</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>477628</v>
+        <v>476112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>396582</v>
+        <v>397279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1066321</v>
+        <v>1068087</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>896734</v>
+        <v>897611</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>722964</v>
+        <v>720011</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>560275</v>
+        <v>559461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>519251</v>
+        <v>520110</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>442561</v>
+        <v>438511</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>620424</v>
+        <v>621945</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>540477</v>
+        <v>541703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>505394</v>
+        <v>504521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1193184</v>
+        <v>1194214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1071635</v>
+        <v>1070017</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>957469</v>
+        <v>954993</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>598113</v>
+        <v>597377</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>558083</v>
+        <v>561254</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>487096</v>
+        <v>488869</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>655461</v>
+        <v>655621</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>575525</v>
+        <v>576976</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>538462</v>
+        <v>536367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1241867</v>
+        <v>1242819</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1124574</v>
+        <v>1125352</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1013780</v>
+        <v>1013060</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>538838</v>
+        <v>538660</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>543798</v>
+        <v>544124</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>593148</v>
+        <v>594114</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>538017</v>
+        <v>540083</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>574080</v>
+        <v>573833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>656591</v>
+        <v>657299</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1088745</v>
+        <v>1087085</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1127724</v>
+        <v>1127162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1260283</v>
+        <v>1259694</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>568784</v>
+        <v>570395</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>578420</v>
+        <v>579494</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>631099</v>
+        <v>632436</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>569685</v>
+        <v>570949</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>603165</v>
+        <v>603243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>682375</v>
+        <v>682123</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1132015</v>
+        <v>1130873</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1172524</v>
+        <v>1171617</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1304935</v>
+        <v>1304522</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>383112</v>
+        <v>383172</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>425920</v>
+        <v>427834</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>543527</v>
+        <v>544687</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>412470</v>
+        <v>412575</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>450795</v>
+        <v>451083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>570721</v>
+        <v>571412</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>803086</v>
+        <v>802020</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>885894</v>
+        <v>884513</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1120045</v>
+        <v>1121841</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>404600</v>
+        <v>404283</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>450904</v>
+        <v>452462</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>570629</v>
+        <v>571392</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>432022</v>
+        <v>431308</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>474305</v>
+        <v>474458</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>588223</v>
+        <v>587471</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>830902</v>
+        <v>831352</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>920490</v>
+        <v>919754</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1152931</v>
+        <v>1153287</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>286586</v>
+        <v>285814</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>318059</v>
+        <v>319364</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>378729</v>
+        <v>378319</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>327847</v>
+        <v>327472</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>361403</v>
+        <v>362537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>422072</v>
+        <v>421149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>621143</v>
+        <v>621355</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>685638</v>
+        <v>687498</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>804453</v>
+        <v>804032</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>302350</v>
+        <v>302595</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>330309</v>
+        <v>330974</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>394397</v>
+        <v>393545</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>344154</v>
+        <v>344013</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>373703</v>
+        <v>373892</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>431382</v>
+        <v>431171</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>643476</v>
+        <v>643830</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>702061</v>
+        <v>702701</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>822661</v>
+        <v>822338</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>220259</v>
+        <v>218684</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>246364</v>
+        <v>245937</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>301850</v>
+        <v>300869</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>363804</v>
+        <v>364651</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>380207</v>
+        <v>381451</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>437308</v>
+        <v>437889</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>590282</v>
+        <v>591776</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>632956</v>
+        <v>632820</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>743272</v>
+        <v>742342</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>237143</v>
+        <v>237428</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>254371</v>
+        <v>254401</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>308785</v>
+        <v>308719</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>378903</v>
+        <v>378836</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>396380</v>
+        <v>396416</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>451260</v>
+        <v>451795</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>612523</v>
+        <v>613003</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>648510</v>
+        <v>649058</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>758558</v>
+        <v>758571</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2747802</v>
+        <v>2748469</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2710129</v>
+        <v>2710917</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2761765</v>
+        <v>2761380</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3066711</v>
+        <v>3064186</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3049156</v>
+        <v>3052049</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3186134</v>
+        <v>3191601</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>5838863</v>
+        <v>5846049</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5786940</v>
+        <v>5777673</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5975320</v>
+        <v>5984796</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2841279</v>
+        <v>2837836</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2799125</v>
+        <v>2802666</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2882178</v>
+        <v>2883642</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3144838</v>
+        <v>3141779</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3126003</v>
+        <v>3125352</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3279661</v>
+        <v>3278077</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>5960423</v>
+        <v>5965085</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>5899172</v>
+        <v>5902464</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6125136</v>
+        <v>6132000</v>
       </c>
     </row>
     <row r="36">
